--- a/biology/Botanique/Atraphaxis_pyrifolia/Atraphaxis_pyrifolia.xlsx
+++ b/biology/Botanique/Atraphaxis_pyrifolia/Atraphaxis_pyrifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Atraphaxis pyrifolia est une espèce de plantes à fleurs buisonnante du genre Atraphaxis appartenant à la famille des Polygonaceae. Elle se rencontre en Asie centrale, dans le Tian Shan central, l'Ala-Taou de Kirghizie, autour de Talas, dans la vallée de la rivière Tchatkal, dans la vallée de Ferghana et au sud de cette vallée.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atraphaxis pyrifolia a été étudiée en 1851 par Alexander von Bunge dans Beitrag zur Kenntniss der Flora Russlands und der Steppen Central-Asiens[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atraphaxis pyrifolia a été étudiée en 1851 par Alexander von Bunge dans Beitrag zur Kenntniss der Flora Russlands und der Steppen Central-Asiens.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Atraphaxis pyrifolia est une plante vivace à feuilles caduques qui croît dans les régions de type steppique. Son buisson peut atteindre 1 à 2 m de hauteur. Ses feuilles ovales (de 15 à 20 mm de longueur et de 10 à 15 mm de largeur), ressemblant à celles des poiriers, sont d'un vert clair brillant et ses fleurs aux boutons roses deviennent d'un jaune rosâtre et fleurissent en mai-juin. Les tiges sont dressées et presque sans feuilles à la fin des rameaux.
 </t>
@@ -573,7 +589,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Atraphaxis pyrifolia se rencontre sur les pentes pierreuses ou sablonneuses de vallées de contreforts montagneux et dans des zones steppiques.
 </t>
